--- a/biology/Biologie cellulaire et moléculaire/Marcella_O'Grady/Marcella_O'Grady.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Marcella_O'Grady/Marcella_O'Grady.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Marcella_O%27Grady</t>
+          <t>Marcella_O'Grady</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marcella O'Grady, née à Boston le 7 octobre 1863 et morte à Trenton dans le New Jersey le 24 octobre 1950, est une biologiste américaine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Marcella_O%27Grady</t>
+          <t>Marcella_O'Grady</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marcella O'Grady est née à Boston, Massachusetts, États-Unis, fille d'immigrants irlandais. Elle a fait ses études secondaires au lycée de filles de Boston[2]. Elle a ensuite suivi les cours au Massachusetts Institute of Technology dont elle a été la première femme à recevoir le diplôme de fin d'études. Elle finit ses études à l'université Harvard. Marcella O'Grady a travaillé comme assistante du professeur Edmund Beecher Wilson, pionnier de la biologie cellulaire, à l'université pour jeunes filles Bryn Mawr College en Pennsylvanie. Elle reçut la bourse de recherche en biologie 1887-1889 pour poursuivre son travail à Bryn Mawr. Elle est nommée professeure associée en 1889, puis professeure titulaire en 1893, au Vassar College, Poughkeepsie, New York.
-En 1896, Edmund B. Wilson l'envoie chez son collègue et ami, Theodor Boveri, à Wurtzbourg en Allemagne[3]. Alors que les femmes n'ont pas accès à l'université en Allemagne, Marcella O'Grady travaille avec Boveri, l'épouse le 4 octobre 1897 au monastère du Bon Berger à Troy, dans l'État de New York. Elle met au monde leur fille Margret le 14 août 1900. Elle épouse Theodor Boveri, le couple a un seul enfant, Margret Boveri (en) (1900–1975), une journaliste célèbre après la guerre en Allemagne.
-Son nom n’apparaît sur aucune des publications scientifiques de Theodor Boveri bien qu'elle soit la principale collaboratrice de son mari jusqu'à la mort de celui-ci en 1915[3]. Elle demeure en Allemagne quelques années, le temps nécessaire pour que sa fille finisse ses études et vole de ses propres ailes. Elle retourne aux États-Unis en 1925. Elle reprend alors l'enseignement à Albertus Magnus College, New Haven, Connecticut, où elle reste jusqu'en 1942. Elle traduit en anglais le livre L'Origine des tumeurs malignes qu'elle a coécrit en allemand avec son mari[2].
-Elle meurt le 24 octobre 1950 à Trenton (New Jersey). Elle est inhumée à Collier Familial Burial Ground, Wickatunk, New Jersey[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marcella O'Grady est née à Boston, Massachusetts, États-Unis, fille d'immigrants irlandais. Elle a fait ses études secondaires au lycée de filles de Boston. Elle a ensuite suivi les cours au Massachusetts Institute of Technology dont elle a été la première femme à recevoir le diplôme de fin d'études. Elle finit ses études à l'université Harvard. Marcella O'Grady a travaillé comme assistante du professeur Edmund Beecher Wilson, pionnier de la biologie cellulaire, à l'université pour jeunes filles Bryn Mawr College en Pennsylvanie. Elle reçut la bourse de recherche en biologie 1887-1889 pour poursuivre son travail à Bryn Mawr. Elle est nommée professeure associée en 1889, puis professeure titulaire en 1893, au Vassar College, Poughkeepsie, New York.
+En 1896, Edmund B. Wilson l'envoie chez son collègue et ami, Theodor Boveri, à Wurtzbourg en Allemagne. Alors que les femmes n'ont pas accès à l'université en Allemagne, Marcella O'Grady travaille avec Boveri, l'épouse le 4 octobre 1897 au monastère du Bon Berger à Troy, dans l'État de New York. Elle met au monde leur fille Margret le 14 août 1900. Elle épouse Theodor Boveri, le couple a un seul enfant, Margret Boveri (en) (1900–1975), une journaliste célèbre après la guerre en Allemagne.
+Son nom n’apparaît sur aucune des publications scientifiques de Theodor Boveri bien qu'elle soit la principale collaboratrice de son mari jusqu'à la mort de celui-ci en 1915. Elle demeure en Allemagne quelques années, le temps nécessaire pour que sa fille finisse ses études et vole de ses propres ailes. Elle retourne aux États-Unis en 1925. Elle reprend alors l'enseignement à Albertus Magnus College, New Haven, Connecticut, où elle reste jusqu'en 1942. Elle traduit en anglais le livre L'Origine des tumeurs malignes qu'elle a coécrit en allemand avec son mari.
+Elle meurt le 24 octobre 1950 à Trenton (New Jersey). Elle est inhumée à Collier Familial Burial Ground, Wickatunk, New Jersey.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Marcella_O%27Grady</t>
+          <t>Marcella_O'Grady</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,10 +559,12 @@
           <t>Œuvre scientifique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marcella O'Grady a contribué à élucider les rôles respectifs des chromosomes et du cytoplasme dans les mécanismes de l'hérédité et du développement[5].
-Elle a aussi grandement contribué à relier le rôle possible des chromosomes dans la transformation cancéreuse[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marcella O'Grady a contribué à élucider les rôles respectifs des chromosomes et du cytoplasme dans les mécanismes de l'hérédité et du développement.
+Elle a aussi grandement contribué à relier le rôle possible des chromosomes dans la transformation cancéreuse.
 </t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Marcella_O%27Grady</t>
+          <t>Marcella_O'Grady</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,9 +593,11 @@
           <t>Contributions à l'éducation et à la promotion des femmes de science</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle a développé un enseignement de biologie original lorsqu'elle a repris ses fonctions de professeur aux États-Unis en 1925[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a développé un enseignement de biologie original lorsqu'elle a repris ses fonctions de professeur aux États-Unis en 1925.
 </t>
         </is>
       </c>
